--- a/export.xlsx
+++ b/export.xlsx
@@ -14,240 +14,414 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="78">
-  <si>
-    <t>PORTOROŽ, LUCIJA</t>
-  </si>
-  <si>
-    <t>98,00 m2</t>
-  </si>
-  <si>
-    <t>265.000,00 €</t>
-  </si>
-  <si>
-    <t>2704.08 €/m2 €/m2</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="136">
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Agency</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>KOPER, NOKTURNO</t>
+  </si>
+  <si>
+    <t>112,00 m2</t>
+  </si>
+  <si>
+    <t>305.000,00 €</t>
+  </si>
+  <si>
+    <t>2723.21 €/m2 €/m2</t>
+  </si>
+  <si>
+    <t>NORMAL PRICE</t>
+  </si>
+  <si>
+    <t>https://www.nepremicnine.net/oglasi-prodaja/koper-nokturno-stanovanje_6377436/</t>
+  </si>
+  <si>
+    <t>PARECAG, SONČNO, PRITLIČNO Z LASTNIM DVORIŠČEM</t>
+  </si>
+  <si>
+    <t>57,00 m2</t>
+  </si>
+  <si>
+    <t>138.000,00 €</t>
+  </si>
+  <si>
+    <t>2421.05 €/m2 €/m2</t>
+  </si>
+  <si>
+    <t>https://www.nepremicnine.net/oglasi-prodaja/parecag-soncno-pritlicno-z-lastnim-dvoriscem-stanovanje_6362590/</t>
+  </si>
+  <si>
+    <t>SEŽANA</t>
+  </si>
+  <si>
+    <t>101,20 m2</t>
+  </si>
+  <si>
+    <t>120.000,00 €</t>
+  </si>
+  <si>
+    <t>1185.77 €/m2 €/m2</t>
+  </si>
+  <si>
+    <t>VERY GOOD VALUE</t>
+  </si>
+  <si>
+    <t>https://www.nepremicnine.net/oglasi-prodaja/sezana-stanovanje_6373225/</t>
+  </si>
+  <si>
+    <t>ANKARAN</t>
+  </si>
+  <si>
+    <t>106,70 m2</t>
+  </si>
+  <si>
+    <t>365.000,00 €</t>
+  </si>
+  <si>
+    <t>3420.81 €/m2 €/m2</t>
+  </si>
+  <si>
+    <t>OVER PRICED</t>
+  </si>
+  <si>
+    <t>https://www.nepremicnine.net/oglasi-prodaja/ankaran-stanovanje_6278047/</t>
+  </si>
+  <si>
+    <t>ANKARAN, POGLED NA MORJE</t>
+  </si>
+  <si>
+    <t>112,20 m2</t>
+  </si>
+  <si>
+    <t>320.000,00 €</t>
+  </si>
+  <si>
+    <t>2852.05 €/m2 €/m2</t>
+  </si>
+  <si>
+    <t>https://www.nepremicnine.net/oglasi-prodaja/ankaran-pogled-na-morje-stanovanje_6200128/</t>
+  </si>
+  <si>
+    <t>DIVAČA</t>
+  </si>
+  <si>
+    <t>54,70 m2</t>
+  </si>
+  <si>
+    <t>94.000,00 €</t>
+  </si>
+  <si>
+    <t>1718.46 €/m2 €/m2</t>
   </si>
   <si>
     <t>GOOD VALUE</t>
   </si>
   <si>
-    <t>https://www.nepremicnine.net/oglasi-prodaja/portoroz-lucija-stanovanje_6366269/</t>
-  </si>
-  <si>
-    <t>LUCIJA</t>
+    <t>https://www.nepremicnine.net/oglasi-prodaja/divaca-stanovanje_6366444/</t>
+  </si>
+  <si>
+    <t>HRPELJE</t>
+  </si>
+  <si>
+    <t>106,60 m2</t>
+  </si>
+  <si>
+    <t>180.983,00 €</t>
+  </si>
+  <si>
+    <t>1697.78 €/m2 €/m2</t>
+  </si>
+  <si>
+    <t>https://www.nepremicnine.net/oglasi-prodaja/hrpelje-stanovanje_6373885/</t>
+  </si>
+  <si>
+    <t>180.983,67 €</t>
+  </si>
+  <si>
+    <t>https://www.nepremicnine.net/oglasi-prodaja/hrpelje-stanovanje_6374322/</t>
+  </si>
+  <si>
+    <t>107,00 m2</t>
+  </si>
+  <si>
+    <t>1691.43 €/m2 €/m2</t>
+  </si>
+  <si>
+    <t>https://www.nepremicnine.net/oglasi-prodaja/hrpelje-stanovanje_6310729/</t>
+  </si>
+  <si>
+    <t>165,15 m2</t>
+  </si>
+  <si>
+    <t>218.155,00 €</t>
+  </si>
+  <si>
+    <t>1320.95 €/m2 €/m2</t>
+  </si>
+  <si>
+    <t>https://www.nepremicnine.net/oglasi-prodaja/hrpelje-stanovanje_6373886/</t>
+  </si>
+  <si>
+    <t>IZOLA</t>
+  </si>
+  <si>
+    <t>47,00 m2</t>
+  </si>
+  <si>
+    <t>130.000,00 €</t>
+  </si>
+  <si>
+    <t>2765.96 €/m2 €/m2</t>
+  </si>
+  <si>
+    <t>https://www.nepremicnine.net/oglasi-prodaja/izola-stanovanje_6347430/</t>
+  </si>
+  <si>
+    <t>65,70 m2</t>
+  </si>
+  <si>
+    <t>245.000,00 €</t>
+  </si>
+  <si>
+    <t>3729.07 €/m2 €/m2</t>
+  </si>
+  <si>
+    <t>https://www.nepremicnine.net/oglasi-prodaja/izola-stanovanje_6369256/</t>
+  </si>
+  <si>
+    <t>109,00 m2</t>
+  </si>
+  <si>
+    <t>448.500,00 €</t>
+  </si>
+  <si>
+    <t>4114.68 €/m2 €/m2</t>
+  </si>
+  <si>
+    <t>VERY OVER PRICED</t>
+  </si>
+  <si>
+    <t>https://www.nepremicnine.net/oglasi-prodaja/izola-stanovanje_6377722/</t>
+  </si>
+  <si>
+    <t>3789.95 €/m2 €/m2</t>
+  </si>
+  <si>
+    <t>https://www.nepremicnine.net/ogIasi-prodaja/dravlje-cesta-andreja-bitenca-posest_5788902/</t>
+  </si>
+  <si>
+    <t>IZOLA, BLIŽINA CENTRA</t>
+  </si>
+  <si>
+    <t>249.000,00 €</t>
+  </si>
+  <si>
+    <t>2452.05 €/m2 €/m2</t>
+  </si>
+  <si>
+    <t>https://www.nepremicnine.net/oglasi-prodaja/izola-blizina-centra-stanovanje_6259036/</t>
+  </si>
+  <si>
+    <t>IZOLA, CENTER</t>
+  </si>
+  <si>
+    <t>73,00 m2</t>
+  </si>
+  <si>
+    <t>179.000,00 €</t>
+  </si>
+  <si>
+    <t>2589.04 €/m2 €/m2</t>
+  </si>
+  <si>
+    <t>https://www.nepremicnine.net/oglasi-prodaja/izola-center-stanovanje_6374789/</t>
+  </si>
+  <si>
+    <t>IZOLA, CENTER, 3S+MANSARDA</t>
+  </si>
+  <si>
+    <t>189.000,00 €</t>
+  </si>
+  <si>
+    <t>https://www.nepremicnine.net/oglasi-prodaja/izola-center-3smansarda-stanovanje_6325195/</t>
+  </si>
+  <si>
+    <t>IZOLA, NOVEJŠI DEL</t>
+  </si>
+  <si>
+    <t>2190.24 €/m2 €/m2</t>
+  </si>
+  <si>
+    <t>https://www.nepremicnine.net/oglasi-prodaja/izola-novejsi-del-stanovanje_6357145/</t>
+  </si>
+  <si>
+    <t>IZOLA, V BLIŽINI UPRAVNE ENOTE</t>
+  </si>
+  <si>
+    <t>79,90 m2</t>
+  </si>
+  <si>
+    <t>175.000,00 €</t>
+  </si>
+  <si>
+    <t>772.14 €/m2 €/m2</t>
+  </si>
+  <si>
+    <t>https://www.nepremicnine.net/oglasi-prodaja/izola-v-blizini-upravne-enote-stanovanje_6034727/</t>
+  </si>
+  <si>
+    <t>KOMEN</t>
+  </si>
+  <si>
+    <t>132,10 m2</t>
+  </si>
+  <si>
+    <t>102.000,00 €</t>
+  </si>
+  <si>
+    <t>2772.15 €/m2 €/m2</t>
+  </si>
+  <si>
+    <t>https://www.nepremicnine.net/oglasi-prodaja/komen-stanovanje_6354970/</t>
+  </si>
+  <si>
+    <t>KOPER</t>
+  </si>
+  <si>
+    <t>79,00 m2</t>
+  </si>
+  <si>
+    <t>219.000,00 €</t>
+  </si>
+  <si>
+    <t>3245.19 €/m2 €/m2</t>
+  </si>
+  <si>
+    <t>https://www.nepremicnine.net/oglasi-prodaja/koper-stanovanje_6375596/</t>
+  </si>
+  <si>
+    <t>83,20 m2</t>
+  </si>
+  <si>
+    <t>270.000,00 €</t>
+  </si>
+  <si>
+    <t>2010.87 €/m2 €/m2</t>
+  </si>
+  <si>
+    <t>https://www.nepremicnine.net/oglasi-prodaja/koper-stanovanje_6061524/</t>
+  </si>
+  <si>
+    <t>90,00 m2</t>
+  </si>
+  <si>
+    <t>205.000,00 €219.000,00 €</t>
+  </si>
+  <si>
+    <t>2950.0 €/m2 €/m2</t>
+  </si>
+  <si>
+    <t>https://www.nepremicnine.net/oglasi-prodaja/koper-stanovanje_6321964/</t>
+  </si>
+  <si>
+    <t>92,00 m2</t>
+  </si>
+  <si>
+    <t>185.000,00 €</t>
+  </si>
+  <si>
+    <t>2710.74 €/m2 €/m2</t>
+  </si>
+  <si>
+    <t>https://www.nepremicnine.net/oglasi-prodaja/koper-stanovanje_6335272/</t>
   </si>
   <si>
     <t>100,00 m2</t>
   </si>
   <si>
+    <t>295.000,00 €</t>
+  </si>
+  <si>
+    <t>2370.2 €/m2 €/m2</t>
+  </si>
+  <si>
+    <t>https://www.nepremicnine.net/oglasi-prodaja/koper-stanovanje_6385297/</t>
+  </si>
+  <si>
+    <t>121,00 m2</t>
+  </si>
+  <si>
+    <t>328.000,00 €</t>
+  </si>
+  <si>
+    <t>https://www.nepremicnine.net/oglasi-prodaja/koper-stanovanje_6250498/</t>
+  </si>
+  <si>
+    <t>132,90 m2</t>
+  </si>
+  <si>
+    <t>315.000,00 €</t>
+  </si>
+  <si>
+    <t>2684.96 €/m2 €/m2</t>
+  </si>
+  <si>
+    <t>https://www.nepremicnine.net/oglasi-prodaja/koper-stanovanje_6341070/</t>
+  </si>
+  <si>
+    <t>4637.93 €/m2 €/m2</t>
+  </si>
+  <si>
+    <t>https://www.nepremicnine.net/oglasi-prodaja/koper-stanovanje_6318066/</t>
+  </si>
+  <si>
+    <t>167,60 m2</t>
+  </si>
+  <si>
+    <t>450.000,00 €</t>
+  </si>
+  <si>
+    <t>https://www.nepremicnine.net/oglasi-prodaja/koper-stanovanje_6353394/</t>
+  </si>
+  <si>
+    <t>KOPER, CENTER</t>
+  </si>
+  <si>
+    <t>58,00 m2</t>
+  </si>
+  <si>
     <t>269.000,00 €</t>
   </si>
   <si>
-    <t>2690.0 €/m2 €/m2</t>
-  </si>
-  <si>
-    <t>https://www.nepremicnine.net/oglasi-prodaja/lucija-stanovanje_6322398/</t>
-  </si>
-  <si>
-    <t>https://www.nepremicnine.net/oglasi-prodaja/lucija-stanovanje_6384891/</t>
-  </si>
-  <si>
-    <t>104,00 m2</t>
-  </si>
-  <si>
-    <t>270.000,00 €</t>
-  </si>
-  <si>
-    <t>2596.15 €/m2 €/m2</t>
-  </si>
-  <si>
-    <t>https://www.nepremicnine.net/oglasi-prodaja/lucija-stanovanje_6356828/</t>
-  </si>
-  <si>
-    <t>108,40 m2</t>
-  </si>
-  <si>
-    <t>220.000,00 €</t>
-  </si>
-  <si>
-    <t>2029.52 €/m2 €/m2</t>
-  </si>
-  <si>
-    <t>VERY GOOD VALUE</t>
-  </si>
-  <si>
-    <t>https://www.nepremicnine.net/oglasi-prodaja/lucija-stanovanje_6361361/</t>
-  </si>
-  <si>
-    <t>https://www.nepremicnine.net/oglasi-prodaja/lucija-stanovanje_6338428/</t>
-  </si>
-  <si>
-    <t>138,40 m2</t>
-  </si>
-  <si>
-    <t>280.000,00 €</t>
-  </si>
-  <si>
-    <t>2023.12 €/m2 €/m2</t>
-  </si>
-  <si>
-    <t>https://www.nepremicnine.net/oglasi-prodaja/lucija-stanovanje_5992442/</t>
-  </si>
-  <si>
-    <t>LUCIJA, BLIŽINA TPC - JA</t>
-  </si>
-  <si>
-    <t>94,50 m2</t>
-  </si>
-  <si>
-    <t>287.000,00 €</t>
-  </si>
-  <si>
-    <t>3037.04 €/m2 €/m2</t>
-  </si>
-  <si>
-    <t>NORMAL PRICE</t>
-  </si>
-  <si>
-    <t>https://www.nepremicnine.net/oglasi-prodaja/lucija-blizina-tpc-ja-stanovanje_6225940/</t>
-  </si>
-  <si>
-    <t>PARECAG</t>
-  </si>
-  <si>
-    <t>144,70 m2</t>
-  </si>
-  <si>
-    <t>225.000,00 €</t>
-  </si>
-  <si>
-    <t>1554.94 €/m2 €/m2</t>
-  </si>
-  <si>
-    <t>https://www.nepremicnine.net/oglasi-prodaja/parecag-stanovanje_6156978/</t>
-  </si>
-  <si>
-    <t>PIRAN</t>
-  </si>
-  <si>
-    <t>72,00 m2</t>
-  </si>
-  <si>
-    <t>299.000,00 €</t>
-  </si>
-  <si>
-    <t>4152.78 €/m2 €/m2</t>
-  </si>
-  <si>
-    <t>VERY OVER PRICED</t>
-  </si>
-  <si>
-    <t>https://www.nepremicnine.net/oglasi-prodaja/piran-stanovanje_6378226/</t>
-  </si>
-  <si>
-    <t>82,00 m2</t>
-  </si>
-  <si>
-    <t>390.000,00 €</t>
-  </si>
-  <si>
-    <t>4756.1 €/m2 €/m2</t>
-  </si>
-  <si>
-    <t>https://www.nepremicnine.net/oglasi-prodaja/piran-stanovanje_6384621/</t>
-  </si>
-  <si>
-    <t>89,80 m2</t>
-  </si>
-  <si>
-    <t>298.000,00 €</t>
-  </si>
-  <si>
-    <t>3318.49 €/m2 €/m2</t>
-  </si>
-  <si>
-    <t>https://www.nepremicnine.net/oglasi-prodaja/piran-stanovanje_6248493/</t>
-  </si>
-  <si>
-    <t>https://www.nepremicnine.net/oglasi-prodaja/piran-stanovanje_6286730/</t>
-  </si>
-  <si>
-    <t>90,95 m2</t>
-  </si>
-  <si>
-    <t>185.000,00 €</t>
-  </si>
-  <si>
-    <t>2034.08 €/m2 €/m2</t>
-  </si>
-  <si>
-    <t>https://www.nepremicnine.net/oglasi-prodaja/piran-stanovanje_5930481/</t>
-  </si>
-  <si>
-    <t>91,00 m2</t>
-  </si>
-  <si>
-    <t>2032.97 €/m2 €/m2</t>
-  </si>
-  <si>
-    <t>https://www.nepremicnine.net/oglasi-prodaja/piran-stanovanje_6369261/</t>
-  </si>
-  <si>
-    <t>133,30 m2</t>
-  </si>
-  <si>
-    <t>310.000,00 €</t>
-  </si>
-  <si>
-    <t>2325.58 €/m2 €/m2</t>
-  </si>
-  <si>
-    <t>https://www.nepremicnine.net/oglasi-prodaja/piran-stanovanje_6309457/</t>
-  </si>
-  <si>
-    <t>PIRAN, BLIŽINA MESTA IN PLAŽE</t>
-  </si>
-  <si>
-    <t>240.000,00 €</t>
-  </si>
-  <si>
-    <t>2400.0 €/m2 €/m2</t>
-  </si>
-  <si>
-    <t>https://www.nepremicnine.net/oglasi-prodaja/piran-blizina-mesta-in-plaze-stanovanje_6241523/</t>
-  </si>
-  <si>
-    <t>PIRAN, BLIŽINA ROKOVEGA TRGA IN OŠ</t>
-  </si>
-  <si>
-    <t>99,30 m2</t>
-  </si>
-  <si>
-    <t>285.000,00 €</t>
-  </si>
-  <si>
-    <t>2870.09 €/m2 €/m2</t>
-  </si>
-  <si>
-    <t>https://www.nepremicnine.net/oglasi-prodaja/piran-blizina-rokovega-trga-in-os-stanovanje_6264417/</t>
-  </si>
-  <si>
-    <t>PIRAN, GORTANOVA ULICA</t>
-  </si>
-  <si>
-    <t>108,00 m2</t>
-  </si>
-  <si>
-    <t>1712.96 €/m2 €/m2</t>
-  </si>
-  <si>
-    <t>https://www.nepremicnine.net/oglasi-prodaja/piran-gortanova-ulica-stanovanje_6357690/</t>
-  </si>
-  <si>
-    <t>PIRAN, TARTINIJEV TRG</t>
-  </si>
-  <si>
-    <t>https://www.nepremicnine.net/oglasi-prodaja/piran-tartinijev-trg-stanovanje_6305666/</t>
+    <t>https://www.nepremicnine.net/oglasi-prodaja/koper-center-stanovanje_6377323/</t>
+  </si>
+  <si>
+    <t>77,00 m2</t>
+  </si>
+  <si>
+    <t>179.000,00 €189.000,00 €</t>
+  </si>
+  <si>
+    <t>https://www.nepremicnine.net/oglasi-prodaja/koper-center-stanovanje_6370143/</t>
   </si>
 </sst>
 </file>
@@ -592,410 +766,2237 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:G21"/>
+  <dimension ref="A1:G113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F5" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E10" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="F10" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="D11" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="E11" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="F11" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="D12" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="F12" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="D13" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="E13" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="F13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="D14" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="E14" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="F14" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15" t="s">
-        <v>53</v>
-      </c>
       <c r="E15" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="F15" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="C16" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D16" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="E16" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="F16" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="C17" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="D17" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="E17" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="F17" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="C18" t="s">
-        <v>7</v>
+        <v>76</v>
       </c>
       <c r="D18" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="E18" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F18" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="C19" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D19" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E19" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="F19" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="C20" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="E20" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="F20" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
+        <v>91</v>
+      </c>
+      <c r="C21" t="s">
+        <v>92</v>
+      </c>
+      <c r="D21" t="s">
+        <v>93</v>
+      </c>
+      <c r="E21" t="s">
+        <v>94</v>
+      </c>
+      <c r="F21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>96</v>
+      </c>
+      <c r="C22" t="s">
+        <v>97</v>
+      </c>
+      <c r="D22" t="s">
+        <v>98</v>
+      </c>
+      <c r="E22" t="s">
+        <v>99</v>
+      </c>
+      <c r="F22" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>96</v>
+      </c>
+      <c r="C23" t="s">
+        <v>101</v>
+      </c>
+      <c r="D23" t="s">
+        <v>102</v>
+      </c>
+      <c r="E23" t="s">
+        <v>103</v>
+      </c>
+      <c r="F23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>96</v>
+      </c>
+      <c r="C24" t="s">
+        <v>105</v>
+      </c>
+      <c r="D24" t="s">
+        <v>106</v>
+      </c>
+      <c r="E24" t="s">
+        <v>107</v>
+      </c>
+      <c r="F24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>96</v>
+      </c>
+      <c r="C25" t="s">
+        <v>109</v>
+      </c>
+      <c r="D25" t="s">
+        <v>110</v>
+      </c>
+      <c r="E25" t="s">
+        <v>111</v>
+      </c>
+      <c r="F25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>96</v>
+      </c>
+      <c r="C26" t="s">
+        <v>113</v>
+      </c>
+      <c r="D26" t="s">
+        <v>114</v>
+      </c>
+      <c r="E26" t="s">
+        <v>115</v>
+      </c>
+      <c r="F26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>96</v>
+      </c>
+      <c r="C27" t="s">
+        <v>117</v>
+      </c>
+      <c r="D27" t="s">
+        <v>118</v>
+      </c>
+      <c r="E27" t="s">
+        <v>115</v>
+      </c>
+      <c r="F27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>96</v>
+      </c>
+      <c r="C28" t="s">
+        <v>120</v>
+      </c>
+      <c r="D28" t="s">
+        <v>121</v>
+      </c>
+      <c r="E28" t="s">
+        <v>122</v>
+      </c>
+      <c r="F28" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>96</v>
+      </c>
+      <c r="C29" t="s">
+        <v>120</v>
+      </c>
+      <c r="D29" t="s">
+        <v>121</v>
+      </c>
+      <c r="E29" t="s">
+        <v>124</v>
+      </c>
+      <c r="F29" t="s">
+        <v>67</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>96</v>
+      </c>
+      <c r="C30" t="s">
+        <v>126</v>
+      </c>
+      <c r="D30" t="s">
+        <v>127</v>
+      </c>
+      <c r="E30" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>129</v>
+      </c>
+      <c r="C31" t="s">
+        <v>130</v>
+      </c>
+      <c r="D31" t="s">
+        <v>131</v>
+      </c>
+      <c r="E31" t="s">
+        <v>16</v>
+      </c>
+      <c r="F31" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>129</v>
+      </c>
+      <c r="C32" t="s">
+        <v>133</v>
+      </c>
+      <c r="D32" t="s">
+        <v>134</v>
+      </c>
+      <c r="E32" t="s">
+        <v>21</v>
+      </c>
+      <c r="F32" t="s">
+        <v>22</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" t="s">
+        <v>27</v>
+      </c>
+      <c r="F33" t="s">
+        <v>28</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" t="s">
+        <v>33</v>
+      </c>
+      <c r="F34" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35" t="s">
+        <v>38</v>
+      </c>
+      <c r="F35" t="s">
+        <v>39</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36" t="s">
+        <v>26</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>39</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37" t="s">
+        <v>31</v>
+      </c>
+      <c r="D37" t="s">
+        <v>32</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>39</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" t="s">
+        <v>35</v>
+      </c>
+      <c r="C38" t="s">
+        <v>36</v>
+      </c>
+      <c r="D38" t="s">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>49</v>
+      </c>
+      <c r="F38" t="s">
+        <v>39</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39" t="s">
+        <v>42</v>
+      </c>
+      <c r="D39" t="s">
+        <v>43</v>
+      </c>
+      <c r="E39" t="s">
+        <v>53</v>
+      </c>
+      <c r="F39" t="s">
+        <v>22</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" t="s">
+        <v>42</v>
+      </c>
+      <c r="D40" t="s">
+        <v>46</v>
+      </c>
+      <c r="E40" t="s">
+        <v>58</v>
+      </c>
+      <c r="F40" t="s">
+        <v>11</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41" t="s">
+        <v>48</v>
+      </c>
+      <c r="D41" t="s">
+        <v>43</v>
+      </c>
+      <c r="E41" t="s">
+        <v>62</v>
+      </c>
+      <c r="F41" t="s">
+        <v>28</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42" t="s">
+        <v>51</v>
+      </c>
+      <c r="D42" t="s">
+        <v>52</v>
+      </c>
+      <c r="E42" t="s">
+        <v>66</v>
+      </c>
+      <c r="F42" t="s">
+        <v>67</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" t="s">
+        <v>55</v>
+      </c>
+      <c r="C43" t="s">
+        <v>56</v>
+      </c>
+      <c r="D43" t="s">
+        <v>57</v>
+      </c>
+      <c r="E43" t="s">
+        <v>69</v>
+      </c>
+      <c r="F43" t="s">
+        <v>28</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" t="s">
+        <v>55</v>
+      </c>
+      <c r="C44" t="s">
+        <v>60</v>
+      </c>
+      <c r="D44" t="s">
+        <v>61</v>
+      </c>
+      <c r="E44" t="s">
+        <v>73</v>
+      </c>
+      <c r="F44" t="s">
+        <v>11</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" t="s">
+        <v>55</v>
+      </c>
+      <c r="C45" t="s">
+        <v>64</v>
+      </c>
+      <c r="D45" t="s">
+        <v>65</v>
+      </c>
+      <c r="E45" t="s">
+        <v>78</v>
+      </c>
+      <c r="F45" t="s">
+        <v>11</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="E46" t="s">
+        <v>69</v>
+      </c>
+      <c r="F46" t="s">
+        <v>28</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" t="s">
+        <v>71</v>
+      </c>
+      <c r="C47" t="s">
+        <v>60</v>
+      </c>
+      <c r="D47" t="s">
+        <v>72</v>
+      </c>
+      <c r="E47" t="s">
+        <v>84</v>
+      </c>
+      <c r="F47" t="s">
+        <v>39</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" t="s">
+        <v>75</v>
+      </c>
+      <c r="C48" t="s">
         <v>76</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D48" t="s">
+        <v>77</v>
+      </c>
+      <c r="E48" t="s">
+        <v>89</v>
+      </c>
+      <c r="F48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" t="s">
+        <v>80</v>
+      </c>
+      <c r="C49" t="s">
+        <v>76</v>
+      </c>
+      <c r="D49" t="s">
+        <v>81</v>
+      </c>
+      <c r="E49" t="s">
+        <v>94</v>
+      </c>
+      <c r="F49" t="s">
+        <v>11</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" t="s">
+        <v>83</v>
+      </c>
+      <c r="C50" t="s">
+        <v>60</v>
+      </c>
+      <c r="D50" t="s">
+        <v>72</v>
+      </c>
+      <c r="E50" t="s">
+        <v>99</v>
+      </c>
+      <c r="F50" t="s">
+        <v>28</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" t="s">
+        <v>86</v>
+      </c>
+      <c r="C51" t="s">
+        <v>87</v>
+      </c>
+      <c r="D51" t="s">
+        <v>88</v>
+      </c>
+      <c r="E51" t="s">
+        <v>103</v>
+      </c>
+      <c r="F51" t="s">
+        <v>39</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" t="s">
+        <v>91</v>
+      </c>
+      <c r="C52" t="s">
+        <v>92</v>
+      </c>
+      <c r="D52" t="s">
+        <v>93</v>
+      </c>
+      <c r="E52" t="s">
+        <v>107</v>
+      </c>
+      <c r="F52" t="s">
+        <v>11</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" t="s">
+        <v>96</v>
+      </c>
+      <c r="C53" t="s">
+        <v>97</v>
+      </c>
+      <c r="D53" t="s">
+        <v>98</v>
+      </c>
+      <c r="E53" t="s">
+        <v>111</v>
+      </c>
+      <c r="F53" t="s">
+        <v>11</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" t="s">
+        <v>96</v>
+      </c>
+      <c r="C54" t="s">
+        <v>101</v>
+      </c>
+      <c r="D54" t="s">
+        <v>102</v>
+      </c>
+      <c r="E54" t="s">
+        <v>115</v>
+      </c>
+      <c r="F54" t="s">
+        <v>11</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" t="s">
+        <v>96</v>
+      </c>
+      <c r="C55" t="s">
+        <v>105</v>
+      </c>
+      <c r="D55" t="s">
+        <v>106</v>
+      </c>
+      <c r="E55" t="s">
+        <v>115</v>
+      </c>
+      <c r="F55" t="s">
+        <v>11</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" t="s">
+        <v>96</v>
+      </c>
+      <c r="C56" t="s">
+        <v>109</v>
+      </c>
+      <c r="D56" t="s">
+        <v>110</v>
+      </c>
+      <c r="E56" t="s">
+        <v>122</v>
+      </c>
+      <c r="F56" t="s">
+        <v>11</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" t="s">
+        <v>96</v>
+      </c>
+      <c r="C57" t="s">
+        <v>113</v>
+      </c>
+      <c r="D57" t="s">
+        <v>114</v>
+      </c>
+      <c r="E57" t="s">
+        <v>124</v>
+      </c>
+      <c r="F57" t="s">
+        <v>67</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" t="s">
+        <v>96</v>
+      </c>
+      <c r="C58" t="s">
+        <v>117</v>
+      </c>
+      <c r="D58" t="s">
+        <v>118</v>
+      </c>
+      <c r="E58" t="s">
+        <v>10</v>
+      </c>
+      <c r="F58" t="s">
+        <v>11</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" t="s">
+        <v>96</v>
+      </c>
+      <c r="C59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D59" t="s">
+        <v>121</v>
+      </c>
+      <c r="E59" t="s">
+        <v>16</v>
+      </c>
+      <c r="F59" t="s">
+        <v>11</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" t="s">
+        <v>96</v>
+      </c>
+      <c r="C60" t="s">
+        <v>120</v>
+      </c>
+      <c r="D60" t="s">
+        <v>121</v>
+      </c>
+      <c r="E60" t="s">
+        <v>21</v>
+      </c>
+      <c r="F60" t="s">
+        <v>22</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" t="s">
+        <v>96</v>
+      </c>
+      <c r="C61" t="s">
+        <v>126</v>
+      </c>
+      <c r="D61" t="s">
+        <v>127</v>
+      </c>
+      <c r="E61" t="s">
+        <v>27</v>
+      </c>
+      <c r="F61" t="s">
+        <v>28</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" t="s">
+        <v>129</v>
+      </c>
+      <c r="C62" t="s">
+        <v>130</v>
+      </c>
+      <c r="D62" t="s">
+        <v>131</v>
+      </c>
+      <c r="E62" t="s">
+        <v>33</v>
+      </c>
+      <c r="F62" t="s">
+        <v>11</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" t="s">
+        <v>129</v>
+      </c>
+      <c r="C63" t="s">
+        <v>133</v>
+      </c>
+      <c r="D63" t="s">
+        <v>134</v>
+      </c>
+      <c r="E63" t="s">
+        <v>38</v>
+      </c>
+      <c r="F63" t="s">
+        <v>39</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" t="s">
+        <v>7</v>
+      </c>
+      <c r="C64" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64" t="s">
+        <v>9</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>39</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" t="s">
+        <v>13</v>
+      </c>
+      <c r="C65" t="s">
+        <v>14</v>
+      </c>
+      <c r="D65" t="s">
+        <v>15</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>39</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" t="s">
+        <v>18</v>
+      </c>
+      <c r="C66" t="s">
+        <v>19</v>
+      </c>
+      <c r="D66" t="s">
+        <v>20</v>
+      </c>
+      <c r="E66" t="s">
+        <v>49</v>
+      </c>
+      <c r="F66" t="s">
+        <v>39</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" t="s">
+        <v>24</v>
+      </c>
+      <c r="C67" t="s">
+        <v>25</v>
+      </c>
+      <c r="D67" t="s">
+        <v>26</v>
+      </c>
+      <c r="E67" t="s">
+        <v>53</v>
+      </c>
+      <c r="F67" t="s">
+        <v>22</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" t="s">
+        <v>30</v>
+      </c>
+      <c r="C68" t="s">
+        <v>31</v>
+      </c>
+      <c r="D68" t="s">
+        <v>32</v>
+      </c>
+      <c r="E68" t="s">
+        <v>58</v>
+      </c>
+      <c r="F68" t="s">
+        <v>11</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" t="s">
+        <v>35</v>
+      </c>
+      <c r="C69" t="s">
+        <v>36</v>
+      </c>
+      <c r="D69" t="s">
+        <v>37</v>
+      </c>
+      <c r="E69" t="s">
+        <v>62</v>
+      </c>
+      <c r="F69" t="s">
+        <v>28</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" t="s">
+        <v>41</v>
+      </c>
+      <c r="C70" t="s">
+        <v>42</v>
+      </c>
+      <c r="D70" t="s">
+        <v>43</v>
+      </c>
+      <c r="E70" t="s">
+        <v>66</v>
+      </c>
+      <c r="F70" t="s">
+        <v>67</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" t="s">
+        <v>41</v>
+      </c>
+      <c r="C71" t="s">
+        <v>42</v>
+      </c>
+      <c r="D71" t="s">
+        <v>46</v>
+      </c>
+      <c r="E71" t="s">
+        <v>69</v>
+      </c>
+      <c r="F71" t="s">
+        <v>28</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" t="s">
+        <v>41</v>
+      </c>
+      <c r="C72" t="s">
+        <v>48</v>
+      </c>
+      <c r="D72" t="s">
+        <v>43</v>
+      </c>
+      <c r="E72" t="s">
+        <v>73</v>
+      </c>
+      <c r="F72" t="s">
+        <v>11</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" t="s">
+        <v>41</v>
+      </c>
+      <c r="C73" t="s">
+        <v>51</v>
+      </c>
+      <c r="D73" t="s">
+        <v>52</v>
+      </c>
+      <c r="E73" t="s">
+        <v>78</v>
+      </c>
+      <c r="F73" t="s">
+        <v>11</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" t="s">
+        <v>55</v>
+      </c>
+      <c r="C74" t="s">
+        <v>56</v>
+      </c>
+      <c r="D74" t="s">
+        <v>57</v>
+      </c>
+      <c r="E74" t="s">
+        <v>69</v>
+      </c>
+      <c r="F74" t="s">
+        <v>28</v>
+      </c>
+      <c r="G74" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D21" t="s">
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" t="s">
+        <v>55</v>
+      </c>
+      <c r="C75" t="s">
         <v>60</v>
       </c>
-      <c r="E21" t="s">
+      <c r="D75" t="s">
         <v>61</v>
       </c>
-      <c r="F21" t="s">
-        <v>4</v>
-      </c>
-      <c r="G21" s="1" t="s">
+      <c r="E75" t="s">
+        <v>84</v>
+      </c>
+      <c r="F75" t="s">
+        <v>39</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" t="s">
+        <v>55</v>
+      </c>
+      <c r="C76" t="s">
+        <v>64</v>
+      </c>
+      <c r="D76" t="s">
+        <v>65</v>
+      </c>
+      <c r="E76" t="s">
+        <v>89</v>
+      </c>
+      <c r="F76" t="s">
+        <v>22</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="E77" t="s">
+        <v>94</v>
+      </c>
+      <c r="F77" t="s">
+        <v>11</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" t="s">
+        <v>71</v>
+      </c>
+      <c r="C78" t="s">
+        <v>60</v>
+      </c>
+      <c r="D78" t="s">
+        <v>72</v>
+      </c>
+      <c r="E78" t="s">
+        <v>99</v>
+      </c>
+      <c r="F78" t="s">
+        <v>28</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" t="s">
+        <v>75</v>
+      </c>
+      <c r="C79" t="s">
+        <v>76</v>
+      </c>
+      <c r="D79" t="s">
         <v>77</v>
+      </c>
+      <c r="E79" t="s">
+        <v>103</v>
+      </c>
+      <c r="F79" t="s">
+        <v>39</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" t="s">
+        <v>80</v>
+      </c>
+      <c r="C80" t="s">
+        <v>76</v>
+      </c>
+      <c r="D80" t="s">
+        <v>81</v>
+      </c>
+      <c r="E80" t="s">
+        <v>107</v>
+      </c>
+      <c r="F80" t="s">
+        <v>11</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" t="s">
+        <v>83</v>
+      </c>
+      <c r="C81" t="s">
+        <v>60</v>
+      </c>
+      <c r="D81" t="s">
+        <v>72</v>
+      </c>
+      <c r="E81" t="s">
+        <v>111</v>
+      </c>
+      <c r="F81" t="s">
+        <v>11</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" t="s">
+        <v>86</v>
+      </c>
+      <c r="C82" t="s">
+        <v>87</v>
+      </c>
+      <c r="D82" t="s">
+        <v>88</v>
+      </c>
+      <c r="E82" t="s">
+        <v>115</v>
+      </c>
+      <c r="F82" t="s">
+        <v>11</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" t="s">
+        <v>91</v>
+      </c>
+      <c r="C83" t="s">
+        <v>92</v>
+      </c>
+      <c r="D83" t="s">
+        <v>93</v>
+      </c>
+      <c r="E83" t="s">
+        <v>115</v>
+      </c>
+      <c r="F83" t="s">
+        <v>11</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" t="s">
+        <v>96</v>
+      </c>
+      <c r="C84" t="s">
+        <v>97</v>
+      </c>
+      <c r="D84" t="s">
+        <v>98</v>
+      </c>
+      <c r="E84" t="s">
+        <v>122</v>
+      </c>
+      <c r="F84" t="s">
+        <v>11</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" t="s">
+        <v>96</v>
+      </c>
+      <c r="C85" t="s">
+        <v>101</v>
+      </c>
+      <c r="D85" t="s">
+        <v>102</v>
+      </c>
+      <c r="E85" t="s">
+        <v>124</v>
+      </c>
+      <c r="F85" t="s">
+        <v>67</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" t="s">
+        <v>96</v>
+      </c>
+      <c r="C86" t="s">
+        <v>105</v>
+      </c>
+      <c r="D86" t="s">
+        <v>106</v>
+      </c>
+      <c r="E86" t="s">
+        <v>10</v>
+      </c>
+      <c r="F86" t="s">
+        <v>11</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" t="s">
+        <v>96</v>
+      </c>
+      <c r="C87" t="s">
+        <v>109</v>
+      </c>
+      <c r="D87" t="s">
+        <v>110</v>
+      </c>
+      <c r="E87" t="s">
+        <v>16</v>
+      </c>
+      <c r="F87" t="s">
+        <v>11</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" t="s">
+        <v>96</v>
+      </c>
+      <c r="C88" t="s">
+        <v>113</v>
+      </c>
+      <c r="D88" t="s">
+        <v>114</v>
+      </c>
+      <c r="E88" t="s">
+        <v>21</v>
+      </c>
+      <c r="F88" t="s">
+        <v>22</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" t="s">
+        <v>96</v>
+      </c>
+      <c r="C89" t="s">
+        <v>117</v>
+      </c>
+      <c r="D89" t="s">
+        <v>118</v>
+      </c>
+      <c r="E89" t="s">
+        <v>27</v>
+      </c>
+      <c r="F89" t="s">
+        <v>28</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" t="s">
+        <v>96</v>
+      </c>
+      <c r="C90" t="s">
+        <v>120</v>
+      </c>
+      <c r="D90" t="s">
+        <v>121</v>
+      </c>
+      <c r="E90" t="s">
+        <v>33</v>
+      </c>
+      <c r="F90" t="s">
+        <v>11</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" t="s">
+        <v>96</v>
+      </c>
+      <c r="C91" t="s">
+        <v>120</v>
+      </c>
+      <c r="D91" t="s">
+        <v>121</v>
+      </c>
+      <c r="E91" t="s">
+        <v>38</v>
+      </c>
+      <c r="F91" t="s">
+        <v>39</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" t="s">
+        <v>96</v>
+      </c>
+      <c r="C92" t="s">
+        <v>126</v>
+      </c>
+      <c r="D92" t="s">
+        <v>127</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>39</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" t="s">
+        <v>129</v>
+      </c>
+      <c r="C93" t="s">
+        <v>130</v>
+      </c>
+      <c r="D93" t="s">
+        <v>131</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>39</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" t="s">
+        <v>129</v>
+      </c>
+      <c r="C94" t="s">
+        <v>133</v>
+      </c>
+      <c r="D94" t="s">
+        <v>134</v>
+      </c>
+      <c r="E94" t="s">
+        <v>49</v>
+      </c>
+      <c r="F94" t="s">
+        <v>39</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" t="s">
+        <v>7</v>
+      </c>
+      <c r="C95" t="s">
+        <v>8</v>
+      </c>
+      <c r="D95" t="s">
+        <v>9</v>
+      </c>
+      <c r="E95" t="s">
+        <v>53</v>
+      </c>
+      <c r="F95" t="s">
+        <v>22</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" t="s">
+        <v>13</v>
+      </c>
+      <c r="C96" t="s">
+        <v>14</v>
+      </c>
+      <c r="D96" t="s">
+        <v>15</v>
+      </c>
+      <c r="E96" t="s">
+        <v>58</v>
+      </c>
+      <c r="F96" t="s">
+        <v>11</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" t="s">
+        <v>18</v>
+      </c>
+      <c r="C97" t="s">
+        <v>19</v>
+      </c>
+      <c r="D97" t="s">
+        <v>20</v>
+      </c>
+      <c r="E97" t="s">
+        <v>62</v>
+      </c>
+      <c r="F97" t="s">
+        <v>28</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" t="s">
+        <v>24</v>
+      </c>
+      <c r="C98" t="s">
+        <v>25</v>
+      </c>
+      <c r="D98" t="s">
+        <v>26</v>
+      </c>
+      <c r="E98" t="s">
+        <v>66</v>
+      </c>
+      <c r="F98" t="s">
+        <v>67</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" t="s">
+        <v>30</v>
+      </c>
+      <c r="C99" t="s">
+        <v>31</v>
+      </c>
+      <c r="D99" t="s">
+        <v>32</v>
+      </c>
+      <c r="E99" t="s">
+        <v>69</v>
+      </c>
+      <c r="F99" t="s">
+        <v>28</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" t="s">
+        <v>35</v>
+      </c>
+      <c r="C100" t="s">
+        <v>36</v>
+      </c>
+      <c r="D100" t="s">
+        <v>37</v>
+      </c>
+      <c r="E100" t="s">
+        <v>73</v>
+      </c>
+      <c r="F100" t="s">
+        <v>11</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" t="s">
+        <v>41</v>
+      </c>
+      <c r="C101" t="s">
+        <v>42</v>
+      </c>
+      <c r="D101" t="s">
+        <v>43</v>
+      </c>
+      <c r="E101" t="s">
+        <v>78</v>
+      </c>
+      <c r="F101" t="s">
+        <v>11</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" t="s">
+        <v>41</v>
+      </c>
+      <c r="C102" t="s">
+        <v>42</v>
+      </c>
+      <c r="D102" t="s">
+        <v>46</v>
+      </c>
+      <c r="E102" t="s">
+        <v>69</v>
+      </c>
+      <c r="F102" t="s">
+        <v>28</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" t="s">
+        <v>41</v>
+      </c>
+      <c r="C103" t="s">
+        <v>48</v>
+      </c>
+      <c r="D103" t="s">
+        <v>43</v>
+      </c>
+      <c r="E103" t="s">
+        <v>84</v>
+      </c>
+      <c r="F103" t="s">
+        <v>39</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" t="s">
+        <v>41</v>
+      </c>
+      <c r="C104" t="s">
+        <v>51</v>
+      </c>
+      <c r="D104" t="s">
+        <v>52</v>
+      </c>
+      <c r="E104" t="s">
+        <v>89</v>
+      </c>
+      <c r="F104" t="s">
+        <v>22</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" t="s">
+        <v>55</v>
+      </c>
+      <c r="C105" t="s">
+        <v>56</v>
+      </c>
+      <c r="D105" t="s">
+        <v>57</v>
+      </c>
+      <c r="E105" t="s">
+        <v>94</v>
+      </c>
+      <c r="F105" t="s">
+        <v>11</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" t="s">
+        <v>55</v>
+      </c>
+      <c r="C106" t="s">
+        <v>60</v>
+      </c>
+      <c r="D106" t="s">
+        <v>61</v>
+      </c>
+      <c r="E106" t="s">
+        <v>99</v>
+      </c>
+      <c r="F106" t="s">
+        <v>28</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" t="s">
+        <v>55</v>
+      </c>
+      <c r="C107" t="s">
+        <v>64</v>
+      </c>
+      <c r="D107" t="s">
+        <v>65</v>
+      </c>
+      <c r="E107" t="s">
+        <v>103</v>
+      </c>
+      <c r="F107" t="s">
+        <v>39</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="E108" t="s">
+        <v>107</v>
+      </c>
+      <c r="F108" t="s">
+        <v>11</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" t="s">
+        <v>71</v>
+      </c>
+      <c r="C109" t="s">
+        <v>60</v>
+      </c>
+      <c r="D109" t="s">
+        <v>72</v>
+      </c>
+      <c r="E109" t="s">
+        <v>111</v>
+      </c>
+      <c r="F109" t="s">
+        <v>11</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" t="s">
+        <v>75</v>
+      </c>
+      <c r="C110" t="s">
+        <v>76</v>
+      </c>
+      <c r="D110" t="s">
+        <v>77</v>
+      </c>
+      <c r="E110" t="s">
+        <v>115</v>
+      </c>
+      <c r="F110" t="s">
+        <v>11</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" t="s">
+        <v>80</v>
+      </c>
+      <c r="C111" t="s">
+        <v>76</v>
+      </c>
+      <c r="D111" t="s">
+        <v>81</v>
+      </c>
+      <c r="E111" t="s">
+        <v>115</v>
+      </c>
+      <c r="F111" t="s">
+        <v>11</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" t="s">
+        <v>83</v>
+      </c>
+      <c r="C112" t="s">
+        <v>60</v>
+      </c>
+      <c r="D112" t="s">
+        <v>72</v>
+      </c>
+      <c r="E112" t="s">
+        <v>122</v>
+      </c>
+      <c r="F112" t="s">
+        <v>11</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113" t="s">
+        <v>86</v>
+      </c>
+      <c r="C113" t="s">
+        <v>87</v>
+      </c>
+      <c r="D113" t="s">
+        <v>88</v>
+      </c>
+      <c r="E113" t="s">
+        <v>124</v>
+      </c>
+      <c r="F113" t="s">
+        <v>67</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1020,6 +3021,98 @@
     <hyperlink ref="G19" r:id="rId18"/>
     <hyperlink ref="G20" r:id="rId19"/>
     <hyperlink ref="G21" r:id="rId20"/>
+    <hyperlink ref="G22" r:id="rId21"/>
+    <hyperlink ref="G23" r:id="rId22"/>
+    <hyperlink ref="G24" r:id="rId23"/>
+    <hyperlink ref="G25" r:id="rId24"/>
+    <hyperlink ref="G26" r:id="rId25"/>
+    <hyperlink ref="G27" r:id="rId26"/>
+    <hyperlink ref="G28" r:id="rId27"/>
+    <hyperlink ref="G29" r:id="rId28"/>
+    <hyperlink ref="G30" r:id="rId29"/>
+    <hyperlink ref="G31" r:id="rId30"/>
+    <hyperlink ref="G32" r:id="rId31"/>
+    <hyperlink ref="G33" r:id="rId32"/>
+    <hyperlink ref="G34" r:id="rId33"/>
+    <hyperlink ref="G35" r:id="rId34"/>
+    <hyperlink ref="G36" r:id="rId35"/>
+    <hyperlink ref="G37" r:id="rId36"/>
+    <hyperlink ref="G38" r:id="rId37"/>
+    <hyperlink ref="G39" r:id="rId38"/>
+    <hyperlink ref="G40" r:id="rId39"/>
+    <hyperlink ref="G41" r:id="rId40"/>
+    <hyperlink ref="G42" r:id="rId41"/>
+    <hyperlink ref="G43" r:id="rId42"/>
+    <hyperlink ref="G44" r:id="rId43"/>
+    <hyperlink ref="G45" r:id="rId44"/>
+    <hyperlink ref="G46" r:id="rId45"/>
+    <hyperlink ref="G47" r:id="rId46"/>
+    <hyperlink ref="G48" r:id="rId47"/>
+    <hyperlink ref="G49" r:id="rId48"/>
+    <hyperlink ref="G50" r:id="rId49"/>
+    <hyperlink ref="G51" r:id="rId50"/>
+    <hyperlink ref="G52" r:id="rId51"/>
+    <hyperlink ref="G53" r:id="rId52"/>
+    <hyperlink ref="G54" r:id="rId53"/>
+    <hyperlink ref="G55" r:id="rId54"/>
+    <hyperlink ref="G56" r:id="rId55"/>
+    <hyperlink ref="G57" r:id="rId56"/>
+    <hyperlink ref="G58" r:id="rId57"/>
+    <hyperlink ref="G59" r:id="rId58"/>
+    <hyperlink ref="G60" r:id="rId59"/>
+    <hyperlink ref="G61" r:id="rId60"/>
+    <hyperlink ref="G62" r:id="rId61"/>
+    <hyperlink ref="G63" r:id="rId62"/>
+    <hyperlink ref="G64" r:id="rId63"/>
+    <hyperlink ref="G65" r:id="rId64"/>
+    <hyperlink ref="G66" r:id="rId65"/>
+    <hyperlink ref="G67" r:id="rId66"/>
+    <hyperlink ref="G68" r:id="rId67"/>
+    <hyperlink ref="G69" r:id="rId68"/>
+    <hyperlink ref="G70" r:id="rId69"/>
+    <hyperlink ref="G71" r:id="rId70"/>
+    <hyperlink ref="G72" r:id="rId71"/>
+    <hyperlink ref="G73" r:id="rId72"/>
+    <hyperlink ref="G74" r:id="rId73"/>
+    <hyperlink ref="G75" r:id="rId74"/>
+    <hyperlink ref="G76" r:id="rId75"/>
+    <hyperlink ref="G77" r:id="rId76"/>
+    <hyperlink ref="G78" r:id="rId77"/>
+    <hyperlink ref="G79" r:id="rId78"/>
+    <hyperlink ref="G80" r:id="rId79"/>
+    <hyperlink ref="G81" r:id="rId80"/>
+    <hyperlink ref="G82" r:id="rId81"/>
+    <hyperlink ref="G83" r:id="rId82"/>
+    <hyperlink ref="G84" r:id="rId83"/>
+    <hyperlink ref="G85" r:id="rId84"/>
+    <hyperlink ref="G86" r:id="rId85"/>
+    <hyperlink ref="G87" r:id="rId86"/>
+    <hyperlink ref="G88" r:id="rId87"/>
+    <hyperlink ref="G89" r:id="rId88"/>
+    <hyperlink ref="G90" r:id="rId89"/>
+    <hyperlink ref="G91" r:id="rId90"/>
+    <hyperlink ref="G92" r:id="rId91"/>
+    <hyperlink ref="G93" r:id="rId92"/>
+    <hyperlink ref="G94" r:id="rId93"/>
+    <hyperlink ref="G95" r:id="rId94"/>
+    <hyperlink ref="G96" r:id="rId95"/>
+    <hyperlink ref="G97" r:id="rId96"/>
+    <hyperlink ref="G98" r:id="rId97"/>
+    <hyperlink ref="G99" r:id="rId98"/>
+    <hyperlink ref="G100" r:id="rId99"/>
+    <hyperlink ref="G101" r:id="rId100"/>
+    <hyperlink ref="G102" r:id="rId101"/>
+    <hyperlink ref="G103" r:id="rId102"/>
+    <hyperlink ref="G104" r:id="rId103"/>
+    <hyperlink ref="G105" r:id="rId104"/>
+    <hyperlink ref="G106" r:id="rId105"/>
+    <hyperlink ref="G107" r:id="rId106"/>
+    <hyperlink ref="G108" r:id="rId107"/>
+    <hyperlink ref="G109" r:id="rId108"/>
+    <hyperlink ref="G110" r:id="rId109"/>
+    <hyperlink ref="G111" r:id="rId110"/>
+    <hyperlink ref="G112" r:id="rId111"/>
+    <hyperlink ref="G113" r:id="rId112"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
